--- a/Correios.xlsx
+++ b/Correios.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Aulas Insper\2°Semestre\Ciencias dos dados\Classificador-de-sentimentos-para-Twitter\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE74D46-AE05-4C41-BE8B-D213077D0740}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13152"/>
   </bookViews>
   <sheets>
     <sheet name="Teste" sheetId="2" r:id="rId1"/>
@@ -1413,7 +1407,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1495,7 +1489,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1533,9 +1527,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1568,26 +1562,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1620,26 +1597,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1812,14 +1772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -2637,500 +2597,800 @@
       <c r="A102" t="s">
         <v>99</v>
       </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>332</v>
       </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>333</v>
       </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>2</v>
       </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>334</v>
       </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>335</v>
       </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>336</v>
       </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>106</v>
       </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>337</v>
       </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>338</v>
       </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>413</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3139,14 +3399,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B300"/>
   <sheetViews>
     <sheetView topLeftCell="A136" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" style="3" bestFit="1" customWidth="1"/>

--- a/Correios.xlsx
+++ b/Correios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13152"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13152" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Teste" sheetId="2" r:id="rId1"/>
@@ -1775,7 +1775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A163" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
@@ -3402,8 +3402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B300"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A270" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4624,745 +4624,1192 @@
       <c r="A152" t="s">
         <v>131</v>
       </c>
+      <c r="B152" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>132</v>
       </c>
+      <c r="B153" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>133</v>
       </c>
+      <c r="B154" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>134</v>
       </c>
+      <c r="B155" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>135</v>
       </c>
+      <c r="B156" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>136</v>
       </c>
+      <c r="B157" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>137</v>
       </c>
+      <c r="B158" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>99</v>
       </c>
+      <c r="B159" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B160" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B161" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B163" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B164" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B166" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B167" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B168" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B169" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B170" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B171" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B172" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B173" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B174" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B175" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B176" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B177" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B178" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B179" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B180" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B181" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B182" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B183" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B184" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B185" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B187" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B188" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B189" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B190" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B191" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B192" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B193" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B194" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B195" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B196" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B197" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B198" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B199" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B200" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B201" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B202" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B203" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B204" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B205" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B206" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B207" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B208" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B209" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B210" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B211" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B212" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B213" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B214" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B215" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B216" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B217" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B218" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B219" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B220" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B221" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B222" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B223" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B224" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B225" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B226" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B227" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B228" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B229" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B230" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B231" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B232" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B233" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B234" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B235" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B236" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B237" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B238" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B239" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B240" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B241" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B242" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B243" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B244" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B245" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B246" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B247" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B248" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B249" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B250" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B251" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B252" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B253" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B254" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B255" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B256" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B257" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B258" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B259" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B260" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B261" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B262" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B263" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B264" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B265" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B266" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B267" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B268" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B269" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B270" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B271" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B272" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B273" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B274" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B275" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B276" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B277" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B278" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B279" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B280" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B281" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B282" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B283" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B284" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B285" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B286" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B287" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B288" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B289" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B290" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B291" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B292" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B293" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B294" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B295" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B296" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B297" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B298" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B299" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>251</v>
+      </c>
+      <c r="B300" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
